--- a/Bloque Optica/P1/Prisma/data.xlsx
+++ b/Bloque Optica/P1/Prisma/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feyra\Desktop\UNI\T-cnicas-experimentales-II\Bloque Optica\P1\Prisma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14D46C4-F2FC-4542-94BF-E839BA6F82F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BCA034-3193-4C7A-B526-4A6E6C6D42F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>epsilon</t>
   </si>
   <si>
     <t>delta</t>
-  </si>
-  <si>
-    <t>err epsilon</t>
   </si>
   <si>
     <t>err delta</t>
@@ -43,13 +40,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,6 +239,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1292,73 +1320,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3">
+    <row r="3" spans="2:4">
+      <c r="B3" s="1">
         <v>30</v>
       </c>
+      <c r="C3" s="1">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <f>B3+5</f>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1">
         <v>35</v>
       </c>
+      <c r="C4" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <f t="shared" ref="B5:B13" si="0">B4+5</f>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1">
         <v>40</v>
       </c>
+      <c r="C5" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f t="shared" si="0"/>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1">
         <v>45</v>
       </c>
+      <c r="C6" s="1">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <f t="shared" si="0"/>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1">
         <v>50</v>
       </c>
+      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f t="shared" si="0"/>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1">
         <v>55</v>
       </c>
+      <c r="C8" s="1">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f t="shared" si="0"/>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1">
         <v>60</v>
       </c>
+      <c r="C9" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f>B9+5</f>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1">
         <v>65</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
